--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3731.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3731.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.240252699493263</v>
+        <v>2.769444465637207</v>
       </c>
       <c r="B1">
-        <v>2.335445917968161</v>
+        <v>1.993281245231628</v>
       </c>
       <c r="C1">
-        <v>5.489844985351353</v>
+        <v>1.798549056053162</v>
       </c>
       <c r="D1">
-        <v>2.961695528814248</v>
+        <v>1.812283992767334</v>
       </c>
       <c r="E1">
-        <v>1.150479731098007</v>
+        <v>1.709228754043579</v>
       </c>
     </row>
   </sheetData>
